--- a/data/raw/election/voters-age-sex-education/2023/Osmaniye.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Osmaniye.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:55:50-63970016810" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="36">
   <si>
     <t>Osmaniye</t>
   </si>
@@ -122,6 +121,12 @@
   </si>
   <si>
     <t>Toprakkale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -655,7 +660,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -669,16 +674,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1003,10 +1017,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N186"/>
+  <dimension ref="A1:N188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187:C188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,24 +1036,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1140,7 +1154,7 @@
         <v>12</v>
       </c>
       <c r="M6" s="5">
-        <v>1.202</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1179,7 +1193,7 @@
         <v>3</v>
       </c>
       <c r="M7" s="5">
-        <v>1.2190000000000001</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1219,7 +1233,7 @@
       <c r="L8" s="4">
         <v>7</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>694</v>
       </c>
     </row>
@@ -1258,7 +1272,7 @@
       <c r="L9" s="4">
         <v>4</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>737</v>
       </c>
     </row>
@@ -1299,7 +1313,7 @@
       <c r="L10" s="4">
         <v>9</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>654</v>
       </c>
     </row>
@@ -1338,7 +1352,7 @@
       <c r="L11" s="4">
         <v>8</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>697</v>
       </c>
     </row>
@@ -1379,7 +1393,7 @@
       <c r="L12" s="4">
         <v>7</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>760</v>
       </c>
     </row>
@@ -1418,7 +1432,7 @@
       <c r="L13" s="4">
         <v>8</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>735</v>
       </c>
     </row>
@@ -1459,7 +1473,7 @@
       <c r="L14" s="4">
         <v>5</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>786</v>
       </c>
     </row>
@@ -1498,7 +1512,7 @@
       <c r="L15" s="4">
         <v>6</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>699</v>
       </c>
     </row>
@@ -1539,7 +1553,7 @@
       <c r="L16" s="4">
         <v>1</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>663</v>
       </c>
     </row>
@@ -1578,7 +1592,7 @@
       <c r="L17" s="4">
         <v>4</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>731</v>
       </c>
     </row>
@@ -1619,7 +1633,7 @@
       <c r="L18" s="4">
         <v>5</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>710</v>
       </c>
     </row>
@@ -1658,7 +1672,7 @@
       <c r="L19" s="4">
         <v>10</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>768</v>
       </c>
     </row>
@@ -1699,7 +1713,7 @@
       <c r="L20" s="4">
         <v>9</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="6">
         <v>761</v>
       </c>
     </row>
@@ -1738,7 +1752,7 @@
       <c r="L21" s="4">
         <v>9</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="6">
         <v>737</v>
       </c>
     </row>
@@ -1779,7 +1793,7 @@
       <c r="L22" s="4">
         <v>4</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="6">
         <v>596</v>
       </c>
     </row>
@@ -1818,7 +1832,7 @@
       <c r="L23" s="4">
         <v>6</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="6">
         <v>638</v>
       </c>
     </row>
@@ -1859,7 +1873,7 @@
       <c r="L24" s="4">
         <v>6</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>560</v>
       </c>
     </row>
@@ -1898,7 +1912,7 @@
       <c r="L25" s="4">
         <v>4</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="6">
         <v>480</v>
       </c>
     </row>
@@ -1939,7 +1953,7 @@
       <c r="L26" s="4">
         <v>3</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>309</v>
       </c>
     </row>
@@ -1978,7 +1992,7 @@
       <c r="L27" s="4">
         <v>2</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="6">
         <v>352</v>
       </c>
     </row>
@@ -2019,7 +2033,7 @@
       <c r="L28" s="4">
         <v>2</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="6">
         <v>375</v>
       </c>
     </row>
@@ -2058,7 +2072,7 @@
       <c r="L29" s="4">
         <v>8</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="6">
         <v>514</v>
       </c>
     </row>
@@ -2066,39 +2080,39 @@
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
         <v>809</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="6">
         <v>375</v>
       </c>
       <c r="E30" s="5">
-        <v>3.2570000000000001</v>
+        <v>3257</v>
       </c>
       <c r="F30" s="5">
-        <v>1.5669999999999999</v>
+        <v>1567</v>
       </c>
       <c r="G30" s="5">
-        <v>2.5459999999999998</v>
+        <v>2546</v>
       </c>
       <c r="H30" s="5">
-        <v>5.0629999999999997</v>
+        <v>5063</v>
       </c>
       <c r="I30" s="5">
-        <v>2.4180000000000001</v>
-      </c>
-      <c r="J30" s="5">
+        <v>2418</v>
+      </c>
+      <c r="J30" s="6">
         <v>184</v>
       </c>
-      <c r="K30" s="5">
-        <v>16</v>
-      </c>
-      <c r="L30" s="5">
+      <c r="K30" s="6">
+        <v>16</v>
+      </c>
+      <c r="L30" s="6">
         <v>142</v>
       </c>
       <c r="M30" s="5">
-        <v>16.376999999999999</v>
+        <v>16377</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2159,11 +2173,11 @@
       <c r="F32" s="4">
         <v>2</v>
       </c>
-      <c r="G32" s="4">
-        <v>1.222</v>
-      </c>
-      <c r="H32" s="4">
-        <v>3.2480000000000002</v>
+      <c r="G32" s="9">
+        <v>1222</v>
+      </c>
+      <c r="H32" s="9">
+        <v>3248</v>
       </c>
       <c r="I32" s="4">
         <v>520</v>
@@ -2178,7 +2192,7 @@
         <v>24</v>
       </c>
       <c r="M32" s="5">
-        <v>5.0780000000000003</v>
+        <v>5078</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2198,11 +2212,11 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="4">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="H33" s="4">
-        <v>3.177</v>
+      <c r="G33" s="9">
+        <v>1078</v>
+      </c>
+      <c r="H33" s="9">
+        <v>3177</v>
       </c>
       <c r="I33" s="4">
         <v>785</v>
@@ -2217,7 +2231,7 @@
         <v>7</v>
       </c>
       <c r="M33" s="5">
-        <v>5.1310000000000002</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2258,7 +2272,7 @@
         <v>15</v>
       </c>
       <c r="M34" s="5">
-        <v>2.448</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2284,8 +2298,8 @@
       <c r="H35" s="4">
         <v>615</v>
       </c>
-      <c r="I35" s="4">
-        <v>1.1559999999999999</v>
+      <c r="I35" s="9">
+        <v>1156</v>
       </c>
       <c r="J35" s="4">
         <v>83</v>
@@ -2297,7 +2311,7 @@
         <v>4</v>
       </c>
       <c r="M35" s="5">
-        <v>2.6850000000000001</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2338,7 +2352,7 @@
         <v>8</v>
       </c>
       <c r="M36" s="5">
-        <v>2.1869999999999998</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2377,7 +2391,7 @@
         <v>9</v>
       </c>
       <c r="M37" s="5">
-        <v>2.4830000000000001</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2418,7 +2432,7 @@
         <v>8</v>
       </c>
       <c r="M38" s="5">
-        <v>2.7519999999999998</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2457,7 +2471,7 @@
         <v>14</v>
       </c>
       <c r="M39" s="5">
-        <v>2.7810000000000001</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2482,8 +2496,8 @@
       <c r="G40" s="4">
         <v>681</v>
       </c>
-      <c r="H40" s="4">
-        <v>1.052</v>
+      <c r="H40" s="9">
+        <v>1052</v>
       </c>
       <c r="I40" s="4">
         <v>534</v>
@@ -2498,7 +2512,7 @@
         <v>16</v>
       </c>
       <c r="M40" s="5">
-        <v>3.1339999999999999</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2537,7 +2551,7 @@
         <v>13</v>
       </c>
       <c r="M41" s="5">
-        <v>3.0960000000000001</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2578,7 +2592,7 @@
         <v>5</v>
       </c>
       <c r="M42" s="5">
-        <v>2.7280000000000002</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2592,8 +2606,8 @@
       <c r="D43" s="4">
         <v>22</v>
       </c>
-      <c r="E43" s="4">
-        <v>1.0509999999999999</v>
+      <c r="E43" s="9">
+        <v>1051</v>
       </c>
       <c r="F43" s="4">
         <v>368</v>
@@ -2617,7 +2631,7 @@
         <v>13</v>
       </c>
       <c r="M43" s="5">
-        <v>2.8610000000000002</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2658,7 +2672,7 @@
         <v>9</v>
       </c>
       <c r="M44" s="5">
-        <v>2.8079999999999998</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2672,8 +2686,8 @@
       <c r="D45" s="4">
         <v>54</v>
       </c>
-      <c r="E45" s="4">
-        <v>1.1879999999999999</v>
+      <c r="E45" s="9">
+        <v>1188</v>
       </c>
       <c r="F45" s="4">
         <v>417</v>
@@ -2697,7 +2711,7 @@
         <v>13</v>
       </c>
       <c r="M45" s="5">
-        <v>2.827</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2738,7 +2752,7 @@
         <v>10</v>
       </c>
       <c r="M46" s="5">
-        <v>2.4740000000000002</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2752,8 +2766,8 @@
       <c r="D47" s="4">
         <v>120</v>
       </c>
-      <c r="E47" s="4">
-        <v>1.1160000000000001</v>
+      <c r="E47" s="9">
+        <v>1116</v>
       </c>
       <c r="F47" s="4">
         <v>293</v>
@@ -2777,7 +2791,7 @@
         <v>15</v>
       </c>
       <c r="M47" s="5">
-        <v>2.3820000000000001</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2818,7 +2832,7 @@
         <v>5</v>
       </c>
       <c r="M48" s="5">
-        <v>2.02</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2857,7 +2871,7 @@
         <v>7</v>
       </c>
       <c r="M49" s="5">
-        <v>1.837</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2898,7 +2912,7 @@
         <v>13</v>
       </c>
       <c r="M50" s="5">
-        <v>1.556</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2937,7 +2951,7 @@
         <v>15</v>
       </c>
       <c r="M51" s="5">
-        <v>1.601</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2978,7 +2992,7 @@
         <v>9</v>
       </c>
       <c r="M52" s="5">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3017,7 +3031,7 @@
         <v>9</v>
       </c>
       <c r="M53" s="5">
-        <v>1.252</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3057,7 +3071,7 @@
       <c r="L54" s="4">
         <v>10</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="6">
         <v>993</v>
       </c>
     </row>
@@ -3097,46 +3111,46 @@
         <v>14</v>
       </c>
       <c r="M55" s="5">
-        <v>1.569</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="5">
-        <v>2.8839999999999999</v>
+        <v>2884</v>
       </c>
       <c r="D56" s="5">
-        <v>1.647</v>
+        <v>1647</v>
       </c>
       <c r="E56" s="5">
-        <v>10.465</v>
+        <v>10465</v>
       </c>
       <c r="F56" s="5">
-        <v>6.8890000000000002</v>
+        <v>6889</v>
       </c>
       <c r="G56" s="5">
-        <v>10.819000000000001</v>
+        <v>10819</v>
       </c>
       <c r="H56" s="5">
-        <v>17.048999999999999</v>
+        <v>17049</v>
       </c>
       <c r="I56" s="5">
-        <v>8.8539999999999992</v>
-      </c>
-      <c r="J56" s="5">
+        <v>8854</v>
+      </c>
+      <c r="J56" s="6">
         <v>768</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="6">
         <v>43</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="6">
         <v>265</v>
       </c>
       <c r="M56" s="5">
-        <v>59.683</v>
+        <v>59683</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3215,7 +3229,7 @@
       <c r="L58" s="4">
         <v>1</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="6">
         <v>221</v>
       </c>
     </row>
@@ -3254,7 +3268,7 @@
       <c r="L59" s="4">
         <v>1</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="6">
         <v>202</v>
       </c>
     </row>
@@ -3295,7 +3309,7 @@
       <c r="L60" s="4">
         <v>1</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="6">
         <v>157</v>
       </c>
     </row>
@@ -3334,7 +3348,7 @@
       <c r="L61" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="6">
         <v>145</v>
       </c>
     </row>
@@ -3375,7 +3389,7 @@
       <c r="L62" s="4">
         <v>1</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="6">
         <v>156</v>
       </c>
     </row>
@@ -3414,7 +3428,7 @@
       <c r="L63" s="4">
         <v>1</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="6">
         <v>125</v>
       </c>
     </row>
@@ -3455,7 +3469,7 @@
       <c r="L64" s="4">
         <v>2</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="6">
         <v>146</v>
       </c>
     </row>
@@ -3494,7 +3508,7 @@
       <c r="L65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="6">
         <v>100</v>
       </c>
     </row>
@@ -3535,7 +3549,7 @@
       <c r="L66" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="6">
         <v>155</v>
       </c>
     </row>
@@ -3574,7 +3588,7 @@
       <c r="L67" s="4">
         <v>1</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="6">
         <v>116</v>
       </c>
     </row>
@@ -3615,7 +3629,7 @@
       <c r="L68" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="6">
         <v>127</v>
       </c>
     </row>
@@ -3654,7 +3668,7 @@
       <c r="L69" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="6">
         <v>129</v>
       </c>
     </row>
@@ -3695,7 +3709,7 @@
       <c r="L70" s="4">
         <v>1</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="6">
         <v>138</v>
       </c>
     </row>
@@ -3734,7 +3748,7 @@
       <c r="L71" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="6">
         <v>174</v>
       </c>
     </row>
@@ -3775,7 +3789,7 @@
       <c r="L72" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="6">
         <v>183</v>
       </c>
     </row>
@@ -3814,7 +3828,7 @@
       <c r="L73" s="4">
         <v>4</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="6">
         <v>191</v>
       </c>
     </row>
@@ -3855,7 +3869,7 @@
       <c r="L74" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="6">
         <v>195</v>
       </c>
     </row>
@@ -3894,7 +3908,7 @@
       <c r="L75" s="4">
         <v>2</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="6">
         <v>196</v>
       </c>
     </row>
@@ -3935,7 +3949,7 @@
       <c r="L76" s="4">
         <v>1</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="6">
         <v>186</v>
       </c>
     </row>
@@ -3974,7 +3988,7 @@
       <c r="L77" s="4">
         <v>5</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="6">
         <v>189</v>
       </c>
     </row>
@@ -4015,7 +4029,7 @@
       <c r="L78" s="4">
         <v>1</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="6">
         <v>151</v>
       </c>
     </row>
@@ -4054,7 +4068,7 @@
       <c r="L79" s="4">
         <v>2</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="6">
         <v>143</v>
       </c>
     </row>
@@ -4095,7 +4109,7 @@
       <c r="L80" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="6">
         <v>160</v>
       </c>
     </row>
@@ -4134,7 +4148,7 @@
       <c r="L81" s="4">
         <v>3</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="6">
         <v>186</v>
       </c>
     </row>
@@ -4142,39 +4156,39 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="6">
         <v>142</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="6">
         <v>184</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="6">
         <v>967</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="6">
         <v>430</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="6">
         <v>559</v>
       </c>
       <c r="H82" s="5">
-        <v>1.014</v>
-      </c>
-      <c r="I82" s="5">
+        <v>1014</v>
+      </c>
+      <c r="I82" s="6">
         <v>505</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="6">
         <v>38</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="6">
         <v>5</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="6">
         <v>27</v>
       </c>
       <c r="M82" s="5">
-        <v>3.871</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4235,11 +4249,11 @@
       <c r="F84" s="4">
         <v>1</v>
       </c>
-      <c r="G84" s="4">
-        <v>1.6359999999999999</v>
-      </c>
-      <c r="H84" s="4">
-        <v>4.5750000000000002</v>
+      <c r="G84" s="9">
+        <v>1636</v>
+      </c>
+      <c r="H84" s="9">
+        <v>4575</v>
       </c>
       <c r="I84" s="4">
         <v>905</v>
@@ -4254,7 +4268,7 @@
         <v>40</v>
       </c>
       <c r="M84" s="5">
-        <v>7.2370000000000001</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4274,14 +4288,14 @@
       <c r="F85" s="4">
         <v>1</v>
       </c>
-      <c r="G85" s="4">
-        <v>1.18</v>
-      </c>
-      <c r="H85" s="4">
-        <v>4.4829999999999997</v>
-      </c>
-      <c r="I85" s="4">
-        <v>1.2709999999999999</v>
+      <c r="G85" s="9">
+        <v>1180</v>
+      </c>
+      <c r="H85" s="9">
+        <v>4483</v>
+      </c>
+      <c r="I85" s="9">
+        <v>1271</v>
       </c>
       <c r="J85" s="4">
         <v>4</v>
@@ -4293,7 +4307,7 @@
         <v>22</v>
       </c>
       <c r="M85" s="5">
-        <v>7.0380000000000003</v>
+        <v>7038</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4318,11 +4332,11 @@
       <c r="G86" s="4">
         <v>746</v>
       </c>
-      <c r="H86" s="4">
-        <v>1.4410000000000001</v>
-      </c>
-      <c r="I86" s="4">
-        <v>1.621</v>
+      <c r="H86" s="9">
+        <v>1441</v>
+      </c>
+      <c r="I86" s="9">
+        <v>1621</v>
       </c>
       <c r="J86" s="4">
         <v>111</v>
@@ -4334,7 +4348,7 @@
         <v>24</v>
       </c>
       <c r="M86" s="5">
-        <v>4.0259999999999998</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4357,11 +4371,11 @@
       <c r="G87" s="4">
         <v>695</v>
       </c>
-      <c r="H87" s="4">
-        <v>1.129</v>
-      </c>
-      <c r="I87" s="4">
-        <v>2.0790000000000002</v>
+      <c r="H87" s="9">
+        <v>1129</v>
+      </c>
+      <c r="I87" s="9">
+        <v>2079</v>
       </c>
       <c r="J87" s="4">
         <v>160</v>
@@ -4373,7 +4387,7 @@
         <v>15</v>
       </c>
       <c r="M87" s="5">
-        <v>4.1900000000000004</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4398,11 +4412,11 @@
       <c r="G88" s="4">
         <v>462</v>
       </c>
-      <c r="H88" s="4">
-        <v>1.2609999999999999</v>
-      </c>
-      <c r="I88" s="4">
-        <v>1.3380000000000001</v>
+      <c r="H88" s="9">
+        <v>1261</v>
+      </c>
+      <c r="I88" s="9">
+        <v>1338</v>
       </c>
       <c r="J88" s="4">
         <v>193</v>
@@ -4414,7 +4428,7 @@
         <v>23</v>
       </c>
       <c r="M88" s="5">
-        <v>3.7229999999999999</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4437,11 +4451,11 @@
       <c r="G89" s="4">
         <v>416</v>
       </c>
-      <c r="H89" s="4">
-        <v>1.1060000000000001</v>
-      </c>
-      <c r="I89" s="4">
-        <v>1.502</v>
+      <c r="H89" s="9">
+        <v>1106</v>
+      </c>
+      <c r="I89" s="9">
+        <v>1502</v>
       </c>
       <c r="J89" s="4">
         <v>160</v>
@@ -4453,7 +4467,7 @@
         <v>34</v>
       </c>
       <c r="M89" s="5">
-        <v>3.839</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4478,11 +4492,11 @@
       <c r="G90" s="4">
         <v>509</v>
       </c>
-      <c r="H90" s="4">
-        <v>1.6160000000000001</v>
-      </c>
-      <c r="I90" s="4">
-        <v>1.0640000000000001</v>
+      <c r="H90" s="9">
+        <v>1616</v>
+      </c>
+      <c r="I90" s="9">
+        <v>1064</v>
       </c>
       <c r="J90" s="4">
         <v>160</v>
@@ -4494,7 +4508,7 @@
         <v>35</v>
       </c>
       <c r="M90" s="5">
-        <v>4.2910000000000004</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4517,11 +4531,11 @@
       <c r="G91" s="4">
         <v>459</v>
       </c>
-      <c r="H91" s="4">
-        <v>1.514</v>
-      </c>
-      <c r="I91" s="4">
-        <v>1.1930000000000001</v>
+      <c r="H91" s="9">
+        <v>1514</v>
+      </c>
+      <c r="I91" s="9">
+        <v>1193</v>
       </c>
       <c r="J91" s="4">
         <v>121</v>
@@ -4533,7 +4547,7 @@
         <v>25</v>
       </c>
       <c r="M91" s="5">
-        <v>4.43</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4558,8 +4572,8 @@
       <c r="G92" s="4">
         <v>856</v>
       </c>
-      <c r="H92" s="4">
-        <v>1.8240000000000001</v>
+      <c r="H92" s="9">
+        <v>1824</v>
       </c>
       <c r="I92" s="4">
         <v>952</v>
@@ -4574,7 +4588,7 @@
         <v>35</v>
       </c>
       <c r="M92" s="5">
-        <v>4.6470000000000002</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4597,8 +4611,8 @@
       <c r="G93" s="4">
         <v>715</v>
       </c>
-      <c r="H93" s="4">
-        <v>1.673</v>
+      <c r="H93" s="9">
+        <v>1673</v>
       </c>
       <c r="I93" s="4">
         <v>944</v>
@@ -4613,7 +4627,7 @@
         <v>21</v>
       </c>
       <c r="M93" s="5">
-        <v>4.8579999999999997</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4638,8 +4652,8 @@
       <c r="G94" s="4">
         <v>761</v>
       </c>
-      <c r="H94" s="4">
-        <v>1.6279999999999999</v>
+      <c r="H94" s="9">
+        <v>1628</v>
       </c>
       <c r="I94" s="4">
         <v>784</v>
@@ -4654,7 +4668,7 @@
         <v>37</v>
       </c>
       <c r="M94" s="5">
-        <v>4.3460000000000001</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4668,8 +4682,8 @@
       <c r="D95" s="4">
         <v>30</v>
       </c>
-      <c r="E95" s="4">
-        <v>1.153</v>
+      <c r="E95" s="9">
+        <v>1153</v>
       </c>
       <c r="F95" s="4">
         <v>405</v>
@@ -4677,8 +4691,8 @@
       <c r="G95" s="4">
         <v>649</v>
       </c>
-      <c r="H95" s="4">
-        <v>1.4139999999999999</v>
+      <c r="H95" s="9">
+        <v>1414</v>
       </c>
       <c r="I95" s="4">
         <v>608</v>
@@ -4693,7 +4707,7 @@
         <v>31</v>
       </c>
       <c r="M95" s="5">
-        <v>4.3739999999999997</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4718,8 +4732,8 @@
       <c r="G96" s="4">
         <v>827</v>
       </c>
-      <c r="H96" s="4">
-        <v>1.1659999999999999</v>
+      <c r="H96" s="9">
+        <v>1166</v>
       </c>
       <c r="I96" s="4">
         <v>713</v>
@@ -4734,7 +4748,7 @@
         <v>31</v>
       </c>
       <c r="M96" s="5">
-        <v>4.1539999999999999</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4748,8 +4762,8 @@
       <c r="D97" s="4">
         <v>66</v>
       </c>
-      <c r="E97" s="4">
-        <v>1.4790000000000001</v>
+      <c r="E97" s="9">
+        <v>1479</v>
       </c>
       <c r="F97" s="4">
         <v>416</v>
@@ -4757,8 +4771,8 @@
       <c r="G97" s="4">
         <v>733</v>
       </c>
-      <c r="H97" s="4">
-        <v>1.014</v>
+      <c r="H97" s="9">
+        <v>1014</v>
       </c>
       <c r="I97" s="4">
         <v>409</v>
@@ -4773,7 +4787,7 @@
         <v>42</v>
       </c>
       <c r="M97" s="5">
-        <v>4.2699999999999996</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4798,8 +4812,8 @@
       <c r="G98" s="4">
         <v>795</v>
       </c>
-      <c r="H98" s="4">
-        <v>1.1359999999999999</v>
+      <c r="H98" s="9">
+        <v>1136</v>
       </c>
       <c r="I98" s="4">
         <v>549</v>
@@ -4814,7 +4828,7 @@
         <v>63</v>
       </c>
       <c r="M98" s="5">
-        <v>4.0010000000000003</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4828,8 +4842,8 @@
       <c r="D99" s="4">
         <v>131</v>
       </c>
-      <c r="E99" s="4">
-        <v>1.673</v>
+      <c r="E99" s="9">
+        <v>1673</v>
       </c>
       <c r="F99" s="4">
         <v>329</v>
@@ -4853,7 +4867,7 @@
         <v>42</v>
       </c>
       <c r="M99" s="5">
-        <v>3.976</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4869,8 +4883,8 @@
       <c r="D100" s="4">
         <v>28</v>
       </c>
-      <c r="E100" s="4">
-        <v>1.0940000000000001</v>
+      <c r="E100" s="9">
+        <v>1094</v>
       </c>
       <c r="F100" s="4">
         <v>311</v>
@@ -4894,7 +4908,7 @@
         <v>41</v>
       </c>
       <c r="M100" s="5">
-        <v>3.3769999999999998</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4908,8 +4922,8 @@
       <c r="D101" s="4">
         <v>222</v>
       </c>
-      <c r="E101" s="4">
-        <v>1.4810000000000001</v>
+      <c r="E101" s="9">
+        <v>1481</v>
       </c>
       <c r="F101" s="4">
         <v>166</v>
@@ -4933,7 +4947,7 @@
         <v>40</v>
       </c>
       <c r="M101" s="5">
-        <v>3.2989999999999999</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4949,8 +4963,8 @@
       <c r="D102" s="4">
         <v>57</v>
       </c>
-      <c r="E102" s="4">
-        <v>1.1020000000000001</v>
+      <c r="E102" s="9">
+        <v>1102</v>
       </c>
       <c r="F102" s="4">
         <v>160</v>
@@ -4974,7 +4988,7 @@
         <v>39</v>
       </c>
       <c r="M102" s="5">
-        <v>2.6269999999999998</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4988,8 +5002,8 @@
       <c r="D103" s="4">
         <v>322</v>
       </c>
-      <c r="E103" s="4">
-        <v>1.196</v>
+      <c r="E103" s="9">
+        <v>1196</v>
       </c>
       <c r="F103" s="4">
         <v>79</v>
@@ -5013,7 +5027,7 @@
         <v>33</v>
       </c>
       <c r="M103" s="5">
-        <v>2.7890000000000001</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5054,7 +5068,7 @@
         <v>21</v>
       </c>
       <c r="M104" s="5">
-        <v>1.9</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5093,7 +5107,7 @@
         <v>32</v>
       </c>
       <c r="M105" s="5">
-        <v>2.0979999999999999</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5134,7 +5148,7 @@
         <v>27</v>
       </c>
       <c r="M106" s="5">
-        <v>2.0409999999999999</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5142,8 +5156,8 @@
       <c r="B107" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="4">
-        <v>1.86</v>
+      <c r="C107" s="9">
+        <v>1860</v>
       </c>
       <c r="D107" s="4">
         <v>476</v>
@@ -5173,46 +5187,46 @@
         <v>53</v>
       </c>
       <c r="M107" s="5">
-        <v>3.153</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
+      <c r="B108" s="7"/>
       <c r="C108" s="5">
-        <v>4.367</v>
+        <v>4367</v>
       </c>
       <c r="D108" s="5">
-        <v>2.379</v>
+        <v>2379</v>
       </c>
       <c r="E108" s="5">
-        <v>16.834</v>
+        <v>16834</v>
       </c>
       <c r="F108" s="5">
-        <v>6.4989999999999997</v>
+        <v>6499</v>
       </c>
       <c r="G108" s="5">
-        <v>13.802</v>
+        <v>13802</v>
       </c>
       <c r="H108" s="5">
-        <v>30.602</v>
+        <v>30602</v>
       </c>
       <c r="I108" s="5">
-        <v>17.812999999999999</v>
+        <v>17813</v>
       </c>
       <c r="J108" s="5">
-        <v>1.484</v>
-      </c>
-      <c r="K108" s="5">
+        <v>1484</v>
+      </c>
+      <c r="K108" s="6">
         <v>98</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="6">
         <v>806</v>
       </c>
       <c r="M108" s="5">
-        <v>94.683999999999997</v>
+        <v>94684</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5273,14 +5287,14 @@
       <c r="F110" s="4">
         <v>7</v>
       </c>
-      <c r="G110" s="4">
-        <v>3.7679999999999998</v>
-      </c>
-      <c r="H110" s="4">
-        <v>8.9860000000000007</v>
-      </c>
-      <c r="I110" s="4">
-        <v>1.698</v>
+      <c r="G110" s="9">
+        <v>3768</v>
+      </c>
+      <c r="H110" s="9">
+        <v>8986</v>
+      </c>
+      <c r="I110" s="9">
+        <v>1698</v>
       </c>
       <c r="J110" s="4">
         <v>11</v>
@@ -5292,7 +5306,7 @@
         <v>536</v>
       </c>
       <c r="M110" s="5">
-        <v>15.303000000000001</v>
+        <v>15303</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5312,14 +5326,14 @@
       <c r="F111" s="4">
         <v>6</v>
       </c>
-      <c r="G111" s="4">
-        <v>3.1680000000000001</v>
-      </c>
-      <c r="H111" s="4">
-        <v>9.0329999999999995</v>
-      </c>
-      <c r="I111" s="4">
-        <v>2.488</v>
+      <c r="G111" s="9">
+        <v>3168</v>
+      </c>
+      <c r="H111" s="9">
+        <v>9033</v>
+      </c>
+      <c r="I111" s="9">
+        <v>2488</v>
       </c>
       <c r="J111" s="4">
         <v>32</v>
@@ -5331,7 +5345,7 @@
         <v>272</v>
       </c>
       <c r="M111" s="5">
-        <v>15.4</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5353,14 +5367,14 @@
       <c r="F112" s="4">
         <v>167</v>
       </c>
-      <c r="G112" s="4">
-        <v>1.968</v>
-      </c>
-      <c r="H112" s="4">
-        <v>2.988</v>
-      </c>
-      <c r="I112" s="4">
-        <v>3.5409999999999999</v>
+      <c r="G112" s="9">
+        <v>1968</v>
+      </c>
+      <c r="H112" s="9">
+        <v>2988</v>
+      </c>
+      <c r="I112" s="9">
+        <v>3541</v>
       </c>
       <c r="J112" s="4">
         <v>245</v>
@@ -5372,7 +5386,7 @@
         <v>408</v>
       </c>
       <c r="M112" s="5">
-        <v>9.5730000000000004</v>
+        <v>9573</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5392,14 +5406,14 @@
       <c r="F113" s="4">
         <v>134</v>
       </c>
-      <c r="G113" s="4">
-        <v>1.9279999999999999</v>
-      </c>
-      <c r="H113" s="4">
-        <v>2.3260000000000001</v>
-      </c>
-      <c r="I113" s="4">
-        <v>4.2309999999999999</v>
+      <c r="G113" s="9">
+        <v>1928</v>
+      </c>
+      <c r="H113" s="9">
+        <v>2326</v>
+      </c>
+      <c r="I113" s="9">
+        <v>4231</v>
       </c>
       <c r="J113" s="4">
         <v>313</v>
@@ -5411,7 +5425,7 @@
         <v>440</v>
       </c>
       <c r="M113" s="5">
-        <v>9.9749999999999996</v>
+        <v>9975</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5430,17 +5444,17 @@
       <c r="E114" s="4">
         <v>108</v>
       </c>
-      <c r="F114" s="4">
-        <v>1.1679999999999999</v>
-      </c>
-      <c r="G114" s="4">
-        <v>1.117</v>
-      </c>
-      <c r="H114" s="4">
-        <v>2.76</v>
-      </c>
-      <c r="I114" s="4">
-        <v>3.3490000000000002</v>
+      <c r="F114" s="9">
+        <v>1168</v>
+      </c>
+      <c r="G114" s="9">
+        <v>1117</v>
+      </c>
+      <c r="H114" s="9">
+        <v>2760</v>
+      </c>
+      <c r="I114" s="9">
+        <v>3349</v>
       </c>
       <c r="J114" s="4">
         <v>402</v>
@@ -5452,7 +5466,7 @@
         <v>379</v>
       </c>
       <c r="M114" s="5">
-        <v>9.4320000000000004</v>
+        <v>9432</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5469,17 +5483,17 @@
       <c r="E115" s="4">
         <v>244</v>
       </c>
-      <c r="F115" s="4">
-        <v>1.478</v>
+      <c r="F115" s="9">
+        <v>1478</v>
       </c>
       <c r="G115" s="4">
         <v>880</v>
       </c>
-      <c r="H115" s="4">
-        <v>2.536</v>
-      </c>
-      <c r="I115" s="4">
-        <v>3.29</v>
+      <c r="H115" s="9">
+        <v>2536</v>
+      </c>
+      <c r="I115" s="9">
+        <v>3290</v>
       </c>
       <c r="J115" s="4">
         <v>343</v>
@@ -5491,7 +5505,7 @@
         <v>443</v>
       </c>
       <c r="M115" s="5">
-        <v>9.798</v>
+        <v>9798</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5510,17 +5524,17 @@
       <c r="E116" s="4">
         <v>386</v>
       </c>
-      <c r="F116" s="4">
-        <v>1.546</v>
-      </c>
-      <c r="G116" s="4">
-        <v>1.002</v>
-      </c>
-      <c r="H116" s="4">
-        <v>3.3050000000000002</v>
-      </c>
-      <c r="I116" s="4">
-        <v>2.9159999999999999</v>
+      <c r="F116" s="9">
+        <v>1546</v>
+      </c>
+      <c r="G116" s="9">
+        <v>1002</v>
+      </c>
+      <c r="H116" s="9">
+        <v>3305</v>
+      </c>
+      <c r="I116" s="9">
+        <v>2916</v>
       </c>
       <c r="J116" s="4">
         <v>401</v>
@@ -5532,7 +5546,7 @@
         <v>445</v>
       </c>
       <c r="M116" s="5">
-        <v>10.198</v>
+        <v>10198</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5546,20 +5560,20 @@
       <c r="D117" s="4">
         <v>259</v>
       </c>
-      <c r="E117" s="4">
-        <v>1.41</v>
-      </c>
-      <c r="F117" s="4">
-        <v>1.2709999999999999</v>
+      <c r="E117" s="9">
+        <v>1410</v>
+      </c>
+      <c r="F117" s="9">
+        <v>1271</v>
       </c>
       <c r="G117" s="4">
         <v>881</v>
       </c>
-      <c r="H117" s="4">
-        <v>2.9670000000000001</v>
-      </c>
-      <c r="I117" s="4">
-        <v>2.35</v>
+      <c r="H117" s="9">
+        <v>2967</v>
+      </c>
+      <c r="I117" s="9">
+        <v>2350</v>
       </c>
       <c r="J117" s="4">
         <v>268</v>
@@ -5571,7 +5585,7 @@
         <v>450</v>
       </c>
       <c r="M117" s="5">
-        <v>10.086</v>
+        <v>10086</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5590,17 +5604,17 @@
       <c r="E118" s="4">
         <v>757</v>
       </c>
-      <c r="F118" s="4">
-        <v>1.169</v>
-      </c>
-      <c r="G118" s="4">
-        <v>1.554</v>
-      </c>
-      <c r="H118" s="4">
-        <v>3.4430000000000001</v>
-      </c>
-      <c r="I118" s="4">
-        <v>2.4630000000000001</v>
+      <c r="F118" s="9">
+        <v>1169</v>
+      </c>
+      <c r="G118" s="9">
+        <v>1554</v>
+      </c>
+      <c r="H118" s="9">
+        <v>3443</v>
+      </c>
+      <c r="I118" s="9">
+        <v>2463</v>
       </c>
       <c r="J118" s="4">
         <v>470</v>
@@ -5612,7 +5626,7 @@
         <v>412</v>
       </c>
       <c r="M118" s="5">
-        <v>10.409000000000001</v>
+        <v>10409</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5626,20 +5640,20 @@
       <c r="D119" s="4">
         <v>231</v>
       </c>
-      <c r="E119" s="4">
-        <v>2.1309999999999998</v>
+      <c r="E119" s="9">
+        <v>2131</v>
       </c>
       <c r="F119" s="4">
         <v>923</v>
       </c>
-      <c r="G119" s="4">
-        <v>1.4750000000000001</v>
-      </c>
-      <c r="H119" s="4">
-        <v>2.9689999999999999</v>
-      </c>
-      <c r="I119" s="4">
-        <v>1.881</v>
+      <c r="G119" s="9">
+        <v>1475</v>
+      </c>
+      <c r="H119" s="9">
+        <v>2969</v>
+      </c>
+      <c r="I119" s="9">
+        <v>1881</v>
       </c>
       <c r="J119" s="4">
         <v>289</v>
@@ -5651,7 +5665,7 @@
         <v>371</v>
       </c>
       <c r="M119" s="5">
-        <v>10.563000000000001</v>
+        <v>10563</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5670,17 +5684,17 @@
       <c r="E120" s="4">
         <v>809</v>
       </c>
-      <c r="F120" s="4">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="G120" s="4">
-        <v>1.419</v>
-      </c>
-      <c r="H120" s="4">
-        <v>2.6880000000000002</v>
-      </c>
-      <c r="I120" s="4">
-        <v>1.972</v>
+      <c r="F120" s="9">
+        <v>1047</v>
+      </c>
+      <c r="G120" s="9">
+        <v>1419</v>
+      </c>
+      <c r="H120" s="9">
+        <v>2688</v>
+      </c>
+      <c r="I120" s="9">
+        <v>1972</v>
       </c>
       <c r="J120" s="4">
         <v>330</v>
@@ -5692,7 +5706,7 @@
         <v>320</v>
       </c>
       <c r="M120" s="5">
-        <v>8.7149999999999999</v>
+        <v>8715</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5706,20 +5720,20 @@
       <c r="D121" s="4">
         <v>215</v>
       </c>
-      <c r="E121" s="4">
-        <v>2.194</v>
+      <c r="E121" s="9">
+        <v>2194</v>
       </c>
       <c r="F121" s="4">
         <v>921</v>
       </c>
-      <c r="G121" s="4">
-        <v>1.2290000000000001</v>
-      </c>
-      <c r="H121" s="4">
-        <v>2.2290000000000001</v>
-      </c>
-      <c r="I121" s="4">
-        <v>1.169</v>
+      <c r="G121" s="9">
+        <v>1229</v>
+      </c>
+      <c r="H121" s="9">
+        <v>2229</v>
+      </c>
+      <c r="I121" s="9">
+        <v>1169</v>
       </c>
       <c r="J121" s="4">
         <v>129</v>
@@ -5731,7 +5745,7 @@
         <v>313</v>
       </c>
       <c r="M121" s="5">
-        <v>8.6690000000000005</v>
+        <v>8669</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5747,20 +5761,20 @@
       <c r="D122" s="4">
         <v>52</v>
       </c>
-      <c r="E122" s="4">
-        <v>1.004</v>
-      </c>
-      <c r="F122" s="4">
-        <v>1.169</v>
-      </c>
-      <c r="G122" s="4">
-        <v>1.399</v>
-      </c>
-      <c r="H122" s="4">
-        <v>1.9419999999999999</v>
-      </c>
-      <c r="I122" s="4">
-        <v>1.5189999999999999</v>
+      <c r="E122" s="9">
+        <v>1004</v>
+      </c>
+      <c r="F122" s="9">
+        <v>1169</v>
+      </c>
+      <c r="G122" s="9">
+        <v>1399</v>
+      </c>
+      <c r="H122" s="9">
+        <v>1942</v>
+      </c>
+      <c r="I122" s="9">
+        <v>1519</v>
       </c>
       <c r="J122" s="4">
         <v>171</v>
@@ -5772,7 +5786,7 @@
         <v>295</v>
       </c>
       <c r="M122" s="5">
-        <v>7.6449999999999996</v>
+        <v>7645</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5786,17 +5800,17 @@
       <c r="D123" s="4">
         <v>232</v>
       </c>
-      <c r="E123" s="4">
-        <v>2.3439999999999999</v>
+      <c r="E123" s="9">
+        <v>2344</v>
       </c>
       <c r="F123" s="4">
         <v>849</v>
       </c>
-      <c r="G123" s="4">
-        <v>1.125</v>
-      </c>
-      <c r="H123" s="4">
-        <v>1.76</v>
+      <c r="G123" s="9">
+        <v>1125</v>
+      </c>
+      <c r="H123" s="9">
+        <v>1760</v>
       </c>
       <c r="I123" s="4">
         <v>619</v>
@@ -5811,7 +5825,7 @@
         <v>305</v>
       </c>
       <c r="M123" s="5">
-        <v>7.5789999999999997</v>
+        <v>7579</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5827,17 +5841,17 @@
       <c r="D124" s="4">
         <v>58</v>
       </c>
-      <c r="E124" s="4">
-        <v>1.1419999999999999</v>
-      </c>
-      <c r="F124" s="4">
-        <v>1.171</v>
-      </c>
-      <c r="G124" s="4">
-        <v>1.2869999999999999</v>
-      </c>
-      <c r="H124" s="4">
-        <v>1.591</v>
+      <c r="E124" s="9">
+        <v>1142</v>
+      </c>
+      <c r="F124" s="9">
+        <v>1171</v>
+      </c>
+      <c r="G124" s="9">
+        <v>1287</v>
+      </c>
+      <c r="H124" s="9">
+        <v>1591</v>
       </c>
       <c r="I124" s="4">
         <v>956</v>
@@ -5852,7 +5866,7 @@
         <v>271</v>
       </c>
       <c r="M124" s="5">
-        <v>6.6449999999999996</v>
+        <v>6645</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5866,8 +5880,8 @@
       <c r="D125" s="4">
         <v>314</v>
       </c>
-      <c r="E125" s="4">
-        <v>2.5339999999999998</v>
+      <c r="E125" s="9">
+        <v>2534</v>
       </c>
       <c r="F125" s="4">
         <v>534</v>
@@ -5875,8 +5889,8 @@
       <c r="G125" s="4">
         <v>838</v>
       </c>
-      <c r="H125" s="4">
-        <v>1.242</v>
+      <c r="H125" s="9">
+        <v>1242</v>
       </c>
       <c r="I125" s="4">
         <v>338</v>
@@ -5891,7 +5905,7 @@
         <v>272</v>
       </c>
       <c r="M125" s="5">
-        <v>6.4909999999999997</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5907,8 +5921,8 @@
       <c r="D126" s="4">
         <v>61</v>
       </c>
-      <c r="E126" s="4">
-        <v>1.393</v>
+      <c r="E126" s="9">
+        <v>1393</v>
       </c>
       <c r="F126" s="4">
         <v>765</v>
@@ -5916,8 +5930,8 @@
       <c r="G126" s="4">
         <v>861</v>
       </c>
-      <c r="H126" s="4">
-        <v>1.391</v>
+      <c r="H126" s="9">
+        <v>1391</v>
       </c>
       <c r="I126" s="4">
         <v>674</v>
@@ -5932,7 +5946,7 @@
         <v>219</v>
       </c>
       <c r="M126" s="5">
-        <v>5.4989999999999997</v>
+        <v>5499</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5946,8 +5960,8 @@
       <c r="D127" s="4">
         <v>347</v>
       </c>
-      <c r="E127" s="4">
-        <v>2.4159999999999999</v>
+      <c r="E127" s="9">
+        <v>2416</v>
       </c>
       <c r="F127" s="4">
         <v>326</v>
@@ -5971,7 +5985,7 @@
         <v>207</v>
       </c>
       <c r="M127" s="5">
-        <v>5.4349999999999996</v>
+        <v>5435</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5987,8 +6001,8 @@
       <c r="D128" s="4">
         <v>89</v>
       </c>
-      <c r="E128" s="4">
-        <v>1.51</v>
+      <c r="E128" s="9">
+        <v>1510</v>
       </c>
       <c r="F128" s="4">
         <v>353</v>
@@ -6012,7 +6026,7 @@
         <v>167</v>
       </c>
       <c r="M128" s="5">
-        <v>4.1820000000000004</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6026,8 +6040,8 @@
       <c r="D129" s="4">
         <v>461</v>
       </c>
-      <c r="E129" s="4">
-        <v>1.954</v>
+      <c r="E129" s="9">
+        <v>1954</v>
       </c>
       <c r="F129" s="4">
         <v>100</v>
@@ -6051,7 +6065,7 @@
         <v>156</v>
       </c>
       <c r="M129" s="5">
-        <v>4.335</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6067,8 +6081,8 @@
       <c r="D130" s="4">
         <v>114</v>
       </c>
-      <c r="E130" s="4">
-        <v>1.4550000000000001</v>
+      <c r="E130" s="9">
+        <v>1455</v>
       </c>
       <c r="F130" s="4">
         <v>121</v>
@@ -6092,7 +6106,7 @@
         <v>119</v>
       </c>
       <c r="M130" s="5">
-        <v>3.05</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6106,8 +6120,8 @@
       <c r="D131" s="4">
         <v>395</v>
       </c>
-      <c r="E131" s="4">
-        <v>1.2609999999999999</v>
+      <c r="E131" s="9">
+        <v>1261</v>
       </c>
       <c r="F131" s="4">
         <v>32</v>
@@ -6131,7 +6145,7 @@
         <v>119</v>
       </c>
       <c r="M131" s="5">
-        <v>3.2570000000000001</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6147,8 +6161,8 @@
       <c r="D132" s="4">
         <v>243</v>
       </c>
-      <c r="E132" s="4">
-        <v>1.4610000000000001</v>
+      <c r="E132" s="9">
+        <v>1461</v>
       </c>
       <c r="F132" s="4">
         <v>40</v>
@@ -6172,7 +6186,7 @@
         <v>123</v>
       </c>
       <c r="M132" s="5">
-        <v>2.8540000000000001</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6180,14 +6194,14 @@
       <c r="B133" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="4">
-        <v>2.0270000000000001</v>
+      <c r="C133" s="9">
+        <v>2027</v>
       </c>
       <c r="D133" s="4">
         <v>502</v>
       </c>
-      <c r="E133" s="4">
-        <v>1.004</v>
+      <c r="E133" s="9">
+        <v>1004</v>
       </c>
       <c r="F133" s="4">
         <v>17</v>
@@ -6211,46 +6225,46 @@
         <v>179</v>
       </c>
       <c r="M133" s="5">
-        <v>3.972</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
+      <c r="B134" s="7"/>
       <c r="C134" s="5">
-        <v>6.9320000000000004</v>
+        <v>6932</v>
       </c>
       <c r="D134" s="5">
-        <v>4.9240000000000004</v>
+        <v>4924</v>
       </c>
       <c r="E134" s="5">
-        <v>28.347000000000001</v>
+        <v>28347</v>
       </c>
       <c r="F134" s="5">
-        <v>15.314</v>
+        <v>15314</v>
       </c>
       <c r="G134" s="5">
-        <v>27.893999999999998</v>
+        <v>27894</v>
       </c>
       <c r="H134" s="5">
-        <v>57.189</v>
+        <v>57189</v>
       </c>
       <c r="I134" s="5">
-        <v>37.167999999999999</v>
+        <v>37168</v>
       </c>
       <c r="J134" s="5">
-        <v>3.7109999999999999</v>
-      </c>
-      <c r="K134" s="5">
+        <v>3711</v>
+      </c>
+      <c r="K134" s="6">
         <v>365</v>
       </c>
       <c r="L134" s="5">
-        <v>7.2210000000000001</v>
+        <v>7221</v>
       </c>
       <c r="M134" s="5">
-        <v>189.065</v>
+        <v>189065</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6329,7 +6343,7 @@
       <c r="L136" s="4">
         <v>7</v>
       </c>
-      <c r="M136" s="5">
+      <c r="M136" s="6">
         <v>774</v>
       </c>
     </row>
@@ -6368,7 +6382,7 @@
       <c r="L137" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M137" s="5">
+      <c r="M137" s="6">
         <v>736</v>
       </c>
     </row>
@@ -6409,7 +6423,7 @@
       <c r="L138" s="4">
         <v>1</v>
       </c>
-      <c r="M138" s="5">
+      <c r="M138" s="6">
         <v>434</v>
       </c>
     </row>
@@ -6448,7 +6462,7 @@
       <c r="L139" s="4">
         <v>3</v>
       </c>
-      <c r="M139" s="5">
+      <c r="M139" s="6">
         <v>340</v>
       </c>
     </row>
@@ -6489,7 +6503,7 @@
       <c r="L140" s="4">
         <v>1</v>
       </c>
-      <c r="M140" s="5">
+      <c r="M140" s="6">
         <v>330</v>
       </c>
     </row>
@@ -6528,7 +6542,7 @@
       <c r="L141" s="4">
         <v>1</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="6">
         <v>266</v>
       </c>
     </row>
@@ -6569,7 +6583,7 @@
       <c r="L142" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="6">
         <v>370</v>
       </c>
     </row>
@@ -6608,7 +6622,7 @@
       <c r="L143" s="4">
         <v>4</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="6">
         <v>323</v>
       </c>
     </row>
@@ -6649,7 +6663,7 @@
       <c r="L144" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="6">
         <v>492</v>
       </c>
     </row>
@@ -6688,7 +6702,7 @@
       <c r="L145" s="4">
         <v>2</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="6">
         <v>399</v>
       </c>
     </row>
@@ -6729,7 +6743,7 @@
       <c r="L146" s="4">
         <v>8</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="6">
         <v>464</v>
       </c>
     </row>
@@ -6768,7 +6782,7 @@
       <c r="L147" s="4">
         <v>1</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="6">
         <v>480</v>
       </c>
     </row>
@@ -6809,7 +6823,7 @@
       <c r="L148" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="6">
         <v>573</v>
       </c>
     </row>
@@ -6848,7 +6862,7 @@
       <c r="L149" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="6">
         <v>537</v>
       </c>
     </row>
@@ -6889,7 +6903,7 @@
       <c r="L150" s="4">
         <v>3</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="6">
         <v>529</v>
       </c>
     </row>
@@ -6928,7 +6942,7 @@
       <c r="L151" s="4">
         <v>2</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="6">
         <v>465</v>
       </c>
     </row>
@@ -6969,7 +6983,7 @@
       <c r="L152" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="6">
         <v>463</v>
       </c>
     </row>
@@ -7008,7 +7022,7 @@
       <c r="L153" s="4">
         <v>4</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="6">
         <v>437</v>
       </c>
     </row>
@@ -7049,7 +7063,7 @@
       <c r="L154" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="6">
         <v>340</v>
       </c>
     </row>
@@ -7088,7 +7102,7 @@
       <c r="L155" s="4">
         <v>3</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="6">
         <v>346</v>
       </c>
     </row>
@@ -7129,7 +7143,7 @@
       <c r="L156" s="4">
         <v>1</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="6">
         <v>248</v>
       </c>
     </row>
@@ -7168,7 +7182,7 @@
       <c r="L157" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="6">
         <v>285</v>
       </c>
     </row>
@@ -7209,7 +7223,7 @@
       <c r="L158" s="4">
         <v>3</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="6">
         <v>340</v>
       </c>
     </row>
@@ -7248,7 +7262,7 @@
       <c r="L159" s="4">
         <v>3</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="6">
         <v>533</v>
       </c>
     </row>
@@ -7256,39 +7270,39 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="6">
         <v>876</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="6">
         <v>310</v>
       </c>
       <c r="E160" s="5">
-        <v>2.9710000000000001</v>
+        <v>2971</v>
       </c>
       <c r="F160" s="5">
-        <v>1.0860000000000001</v>
+        <v>1086</v>
       </c>
       <c r="G160" s="5">
-        <v>1.8260000000000001</v>
+        <v>1826</v>
       </c>
       <c r="H160" s="5">
-        <v>2.5350000000000001</v>
-      </c>
-      <c r="I160" s="5">
+        <v>2535</v>
+      </c>
+      <c r="I160" s="6">
         <v>796</v>
       </c>
-      <c r="J160" s="5">
+      <c r="J160" s="6">
         <v>48</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="6">
         <v>9</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="6">
         <v>47</v>
       </c>
       <c r="M160" s="5">
-        <v>10.504</v>
+        <v>10504</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7367,7 +7381,7 @@
       <c r="L162" s="4">
         <v>15</v>
       </c>
-      <c r="M162" s="5">
+      <c r="M162" s="6">
         <v>889</v>
       </c>
     </row>
@@ -7406,7 +7420,7 @@
       <c r="L163" s="4">
         <v>2</v>
       </c>
-      <c r="M163" s="5">
+      <c r="M163" s="6">
         <v>945</v>
       </c>
     </row>
@@ -7447,7 +7461,7 @@
       <c r="L164" s="4">
         <v>12</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="6">
         <v>598</v>
       </c>
     </row>
@@ -7486,7 +7500,7 @@
       <c r="L165" s="4">
         <v>10</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="6">
         <v>617</v>
       </c>
     </row>
@@ -7527,7 +7541,7 @@
       <c r="L166" s="4">
         <v>8</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="6">
         <v>583</v>
       </c>
     </row>
@@ -7566,7 +7580,7 @@
       <c r="L167" s="4">
         <v>9</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="6">
         <v>580</v>
       </c>
     </row>
@@ -7607,7 +7621,7 @@
       <c r="L168" s="4">
         <v>9</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="6">
         <v>653</v>
       </c>
     </row>
@@ -7646,7 +7660,7 @@
       <c r="L169" s="4">
         <v>19</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="6">
         <v>653</v>
       </c>
     </row>
@@ -7687,7 +7701,7 @@
       <c r="L170" s="4">
         <v>17</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="6">
         <v>632</v>
       </c>
     </row>
@@ -7726,7 +7740,7 @@
       <c r="L171" s="4">
         <v>9</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="6">
         <v>608</v>
       </c>
     </row>
@@ -7767,7 +7781,7 @@
       <c r="L172" s="4">
         <v>7</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="6">
         <v>543</v>
       </c>
     </row>
@@ -7806,7 +7820,7 @@
       <c r="L173" s="4">
         <v>10</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="6">
         <v>529</v>
       </c>
     </row>
@@ -7847,7 +7861,7 @@
       <c r="L174" s="4">
         <v>8</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="6">
         <v>552</v>
       </c>
     </row>
@@ -7886,7 +7900,7 @@
       <c r="L175" s="4">
         <v>6</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="6">
         <v>489</v>
       </c>
     </row>
@@ -7927,7 +7941,7 @@
       <c r="L176" s="4">
         <v>10</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="6">
         <v>463</v>
       </c>
     </row>
@@ -7966,7 +7980,7 @@
       <c r="L177" s="4">
         <v>7</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="6">
         <v>407</v>
       </c>
     </row>
@@ -8007,7 +8021,7 @@
       <c r="L178" s="4">
         <v>4</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="6">
         <v>367</v>
       </c>
     </row>
@@ -8046,7 +8060,7 @@
       <c r="L179" s="4">
         <v>4</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="6">
         <v>375</v>
       </c>
     </row>
@@ -8087,7 +8101,7 @@
       <c r="L180" s="4">
         <v>6</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="6">
         <v>300</v>
       </c>
     </row>
@@ -8126,7 +8140,7 @@
       <c r="L181" s="4">
         <v>8</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="6">
         <v>290</v>
       </c>
     </row>
@@ -8167,7 +8181,7 @@
       <c r="L182" s="4">
         <v>2</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="6">
         <v>190</v>
       </c>
     </row>
@@ -8206,7 +8220,7 @@
       <c r="L183" s="4">
         <v>8</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="6">
         <v>219</v>
       </c>
     </row>
@@ -8247,7 +8261,7 @@
       <c r="L184" s="4">
         <v>2</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="6">
         <v>166</v>
       </c>
     </row>
@@ -8286,7 +8300,7 @@
       <c r="L185" s="4">
         <v>6</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="6">
         <v>303</v>
       </c>
     </row>
@@ -8294,39 +8308,49 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="6">
         <v>431</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="6">
         <v>413</v>
       </c>
       <c r="E186" s="5">
-        <v>1.9430000000000001</v>
+        <v>1943</v>
       </c>
       <c r="F186" s="5">
-        <v>1.06</v>
+        <v>1060</v>
       </c>
       <c r="G186" s="5">
-        <v>1.8660000000000001</v>
+        <v>1866</v>
       </c>
       <c r="H186" s="5">
-        <v>3.6419999999999999</v>
+        <v>3642</v>
       </c>
       <c r="I186" s="5">
-        <v>2.0619999999999998</v>
-      </c>
-      <c r="J186" s="5">
+        <v>2062</v>
+      </c>
+      <c r="J186" s="6">
         <v>278</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="6">
         <v>58</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="6">
         <v>198</v>
       </c>
       <c r="M186" s="5">
-        <v>11.951000000000001</v>
+        <v>11951</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A187" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A188" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
